--- a/eval/roman_123.runtime.xlsx
+++ b/eval/roman_123.runtime.xlsx
@@ -5,39 +5,35 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizaveta/Documents/uni/thesis/eval/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizaveta/Documents/uni/thesis/thesis/eval/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A77B5C7-C2B8-ED42-BC14-924DA599BF3F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47C38C1-8748-9240-BCF6-75D0DA3230DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="24780" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2320" yWindow="500" windowWidth="26480" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="29">
   <si>
     <t>Real time</t>
-  </si>
-  <si>
-    <t>bogus</t>
-  </si>
-  <si>
-    <t>flatten</t>
-  </si>
-  <si>
-    <t>mba</t>
-  </si>
-  <si>
-    <t>merge</t>
-  </si>
-  <si>
-    <t>orig</t>
   </si>
   <si>
     <t>array-trans</t>
@@ -92,6 +88,36 @@
   </si>
   <si>
     <t>CPU time</t>
+  </si>
+  <si>
+    <t>Bogus CF</t>
+  </si>
+  <si>
+    <t>CF Flattening</t>
+  </si>
+  <si>
+    <t>MBA</t>
+  </si>
+  <si>
+    <t>Function Merging</t>
+  </si>
+  <si>
+    <t>Original</t>
+  </si>
+  <si>
+    <t>bogus</t>
+  </si>
+  <si>
+    <t>flatten</t>
+  </si>
+  <si>
+    <t>mba</t>
+  </si>
+  <si>
+    <t>merge</t>
+  </si>
+  <si>
+    <t>orig</t>
   </si>
 </sst>
 </file>
@@ -160,37 +186,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-AT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -202,11 +198,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>Sheet1!$Q$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>bogus</c:v>
+                  <c:v>Bogus CF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -223,9 +219,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$17</c:f>
+              <c:f>Sheet1!$P$2:$P$18</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>array-trans</c:v>
                 </c:pt>
@@ -254,24 +250,27 @@
                   <c:v>logic-reactor</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>mandelbrot</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>matrix-engine</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>mutation</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>pattern</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>recursive</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>roman</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>stepper</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>switch-hell</c:v>
                 </c:pt>
               </c:strCache>
@@ -279,64 +278,67 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$17</c:f>
+              <c:f>Sheet1!$Q$2:$Q$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>5.0258750008651903E-2</c:v>
+                  <c:v>4.3319583506672601E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9852374995243701E-2</c:v>
+                  <c:v>3.09834794970811E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0903750006691497E-2</c:v>
+                  <c:v>3.6610458504583152E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.9914166996604701E-2</c:v>
+                  <c:v>3.5755458498897455E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2215584001969501E-2</c:v>
+                  <c:v>2.4879333490389351E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.2596792007097898E-2</c:v>
+                  <c:v>3.853775000607125E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.4493791996501303E-2</c:v>
+                  <c:v>3.7597354501485755E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.10063339909538E-2</c:v>
+                  <c:v>2.5874250495689852E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.9905125004006501E-2</c:v>
+                  <c:v>3.0616396004916099E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.26275419990997E-2</c:v>
+                  <c:v>4.2141753667565354E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.2200083995121503E-2</c:v>
+                  <c:v>4.4592270991415647E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.2966625003609799E-2</c:v>
+                  <c:v>3.9892667009553351E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.4648042002809199E-2</c:v>
+                  <c:v>3.3945687508094097E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.50959160039201E-2</c:v>
+                  <c:v>2.6987187498889349E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.15813329996308E-2</c:v>
+                  <c:v>3.3435999997891451E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.19084579875925E-2</c:v>
+                  <c:v>2.499952050129645E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.2512812489585451E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D563-DE48-B273-FD9118E6526E}"/>
+              <c16:uniqueId val="{00000000-E19A-5648-AB84-0C5924C121EF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -345,11 +347,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>Sheet1!$R$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>flatten</c:v>
+                  <c:v>CF Flattening</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -366,9 +368,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$17</c:f>
+              <c:f>Sheet1!$P$2:$P$18</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>array-trans</c:v>
                 </c:pt>
@@ -397,24 +399,27 @@
                   <c:v>logic-reactor</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>mandelbrot</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>matrix-engine</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>mutation</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>pattern</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>recursive</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>roman</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>stepper</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>switch-hell</c:v>
                 </c:pt>
               </c:strCache>
@@ -422,64 +427,67 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$17</c:f>
+              <c:f>Sheet1!$R$2:$R$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>2.5135083997156402E-2</c:v>
+                  <c:v>3.1888312994851647E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.14495410036761E-2</c:v>
+                  <c:v>2.1654666503309251E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.7953541997703699E-2</c:v>
+                  <c:v>2.5049291500181398E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.85264159954385E-2</c:v>
+                  <c:v>2.047804150060975E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.17912920052185E-2</c:v>
+                  <c:v>2.1206396006164099E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.4564499995904002E-2</c:v>
+                  <c:v>2.4134812498232301E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.5842167000519101E-2</c:v>
+                  <c:v>2.4597417010227201E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.3454833004507201E-2</c:v>
+                  <c:v>2.2845979001431201E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.1115167008247199E-2</c:v>
+                  <c:v>2.160654199542475E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.2242207996896399E-2</c:v>
+                  <c:v>3.7140313769996283E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.22040000080596E-2</c:v>
+                  <c:v>2.5237020505301147E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.3927750007715E-2</c:v>
+                  <c:v>2.2087771008955252E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.1670208006980801E-2</c:v>
+                  <c:v>2.35562290035886E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.8713249999564099E-2</c:v>
+                  <c:v>2.2056020497984701E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.0515917000011499E-2</c:v>
+                  <c:v>2.15247710002586E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.14534170081606E-2</c:v>
+                  <c:v>2.1448103994771352E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.2474812511063598E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D563-DE48-B273-FD9118E6526E}"/>
+              <c16:uniqueId val="{00000001-E19A-5648-AB84-0C5924C121EF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -488,11 +496,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>Sheet1!$S$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>mba</c:v>
+                  <c:v>MBA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -509,9 +517,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$17</c:f>
+              <c:f>Sheet1!$P$2:$P$18</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>array-trans</c:v>
                 </c:pt>
@@ -540,24 +548,27 @@
                   <c:v>logic-reactor</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>mandelbrot</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>matrix-engine</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>mutation</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>pattern</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>recursive</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>roman</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>stepper</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>switch-hell</c:v>
                 </c:pt>
               </c:strCache>
@@ -565,64 +576,67 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$17</c:f>
+              <c:f>Sheet1!$S$2:$S$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>2.4770749994786401E-2</c:v>
+                  <c:v>2.3875562488683451E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0262624995666501E-2</c:v>
+                  <c:v>2.534616650518725E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3430082990671501E-2</c:v>
+                  <c:v>2.2310457999992601E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8893833010224601E-2</c:v>
+                  <c:v>2.0081979004316949E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1554624996497199E-2</c:v>
+                  <c:v>2.1973167000396549E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.4141542002325801E-2</c:v>
+                  <c:v>2.4193854507757302E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.2704917006194501E-2</c:v>
+                  <c:v>2.4666500015882699E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.2505625005578601E-2</c:v>
+                  <c:v>2.455906249815595E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.47302920033689E-2</c:v>
+                  <c:v>2.352293749572705E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.26269580016378E-2</c:v>
+                  <c:v>3.6148570952464071E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.8990875003510099E-2</c:v>
+                  <c:v>2.4114707994158352E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.3900333006167701E-2</c:v>
+                  <c:v>2.4721062502067001E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.8619207994779499E-2</c:v>
+                  <c:v>2.3469041494536151E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.8820792000042198E-2</c:v>
+                  <c:v>2.5324208007077652E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.3360166000202201E-2</c:v>
+                  <c:v>2.148212499741925E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.1368333997088401E-2</c:v>
+                  <c:v>2.1991645495290799E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.1229666999715801E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D563-DE48-B273-FD9118E6526E}"/>
+              <c16:uniqueId val="{00000002-E19A-5648-AB84-0C5924C121EF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -631,11 +645,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>Sheet1!$T$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>merge</c:v>
+                  <c:v>Function Merging</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -652,9 +666,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$17</c:f>
+              <c:f>Sheet1!$P$2:$P$18</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>array-trans</c:v>
                 </c:pt>
@@ -683,24 +697,27 @@
                   <c:v>logic-reactor</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>mandelbrot</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>matrix-engine</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>mutation</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>pattern</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>recursive</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>roman</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>stepper</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>switch-hell</c:v>
                 </c:pt>
               </c:strCache>
@@ -708,64 +725,67 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$17</c:f>
+              <c:f>Sheet1!$T$2:$T$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>2.8835791003075401E-2</c:v>
+                  <c:v>3.365310400113225E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9468290993245301E-2</c:v>
+                  <c:v>2.0491916497121551E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.37357919977512E-2</c:v>
+                  <c:v>2.3153917005402001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4066584010142798E-2</c:v>
+                  <c:v>2.3441438010195249E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7885707997484101E-2</c:v>
+                  <c:v>2.4015458489884602E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.3127749998820901E-2</c:v>
+                  <c:v>2.2817583507276099E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.2960749993217101E-2</c:v>
+                  <c:v>2.1971312504319898E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.3247000004630501E-2</c:v>
+                  <c:v>2.32599375158315E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.10601669969037E-2</c:v>
+                  <c:v>2.033220849989445E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.1969709006953001E-2</c:v>
+                  <c:v>3.8877195225031753E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.4135375002515499E-2</c:v>
+                  <c:v>2.264354201179225E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.7221249998547099E-2</c:v>
+                  <c:v>2.47989374984172E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.4863124999683298E-2</c:v>
+                  <c:v>2.440831249987235E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.8298041992238698E-2</c:v>
+                  <c:v>2.2985749994404552E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.14552090037614E-2</c:v>
+                  <c:v>2.056318749237105E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.1466042002430099E-2</c:v>
+                  <c:v>2.07217084971489E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.117008350614915E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-D563-DE48-B273-FD9118E6526E}"/>
+              <c16:uniqueId val="{00000003-E19A-5648-AB84-0C5924C121EF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -774,18 +794,18 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
+              <c:f>Sheet1!$U$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>orig</c:v>
+                  <c:v>Original</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5"/>
+              <a:schemeClr val="tx2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -795,9 +815,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$17</c:f>
+              <c:f>Sheet1!$P$2:$P$18</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>array-trans</c:v>
                 </c:pt>
@@ -826,24 +846,27 @@
                   <c:v>logic-reactor</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>mandelbrot</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>matrix-engine</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>mutation</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>pattern</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>recursive</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>roman</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>stepper</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>switch-hell</c:v>
                 </c:pt>
               </c:strCache>
@@ -851,64 +874,67 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$17</c:f>
+              <c:f>Sheet1!$U$2:$U$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>2.4017375006224001E-2</c:v>
+                  <c:v>2.4292812500789251E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.87789170013275E-2</c:v>
+                  <c:v>1.9419562493567348E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2250582987908201E-2</c:v>
+                  <c:v>2.1944791486021048E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0477665995713299E-2</c:v>
+                  <c:v>2.152393749565815E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1739292002166601E-2</c:v>
+                  <c:v>2.0906666999508151E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.73775410023517E-2</c:v>
+                  <c:v>2.50702289922628E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.2625083001912499E-2</c:v>
+                  <c:v>2.22420210120617E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.29288340051425E-2</c:v>
+                  <c:v>2.1770604500488802E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.93462500028545E-2</c:v>
+                  <c:v>2.0269292006560101E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.1662125000148E-2</c:v>
+                  <c:v>3.6746579495047629E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.3529750003944999E-2</c:v>
+                  <c:v>2.16367710017948E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.4004416001844199E-2</c:v>
+                  <c:v>2.2801937506301249E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.07485419959994E-2</c:v>
+                  <c:v>2.3113208000722751E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.87201670050853E-2</c:v>
+                  <c:v>2.1785750002891249E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.1857333000516498E-2</c:v>
+                  <c:v>2.2311333501420401E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.23698330082697E-2</c:v>
+                  <c:v>2.6393041509436398E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.271210400067495E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-D563-DE48-B273-FD9118E6526E}"/>
+              <c16:uniqueId val="{00000004-E19A-5648-AB84-0C5924C121EF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -922,16 +948,76 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1446134687"/>
-        <c:axId val="1446617695"/>
+        <c:axId val="106305023"/>
+        <c:axId val="87543103"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1446134687"/>
+        <c:axId val="106305023"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Benchmark</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> program</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-AT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -969,7 +1055,7 @@
             <a:endParaRPr lang="en-AT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1446617695"/>
+        <c:crossAx val="87543103"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -977,7 +1063,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1446617695"/>
+        <c:axId val="87543103"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -997,6 +1083,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Real time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-AT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1028,7 +1169,7 @@
             <a:endParaRPr lang="en-AT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1446134687"/>
+        <c:crossAx val="106305023"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1129,37 +1270,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-AT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -1171,11 +1282,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$23</c:f>
+              <c:f>Sheet1!$Q$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>bogus</c:v>
+                  <c:v>Bogus CF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1192,9 +1303,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$24:$A$39</c:f>
+              <c:f>Sheet1!$P$24:$P$40</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>array-trans</c:v>
                 </c:pt>
@@ -1223,24 +1334,27 @@
                   <c:v>logic-reactor</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>mandelbrot</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>matrix-engine</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>mutation</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>pattern</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>recursive</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>roman</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>stepper</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>switch-hell</c:v>
                 </c:pt>
               </c:strCache>
@@ -1248,64 +1362,67 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$24:$B$39</c:f>
+              <c:f>Sheet1!$Q$24:$Q$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>2.9155665999999799E-2</c:v>
+                  <c:v>2.2783998999999902E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6461209000000001E-2</c:v>
+                  <c:v>1.655079199999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9762916999999901E-2</c:v>
+                  <c:v>1.8133416499999951E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.65684589999999E-2</c:v>
+                  <c:v>1.948008349999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.5484600000001E-3</c:v>
+                  <c:v>9.3783760000000493E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5555375999999999E-2</c:v>
+                  <c:v>1.9355895499999901E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.6617499999999902E-2</c:v>
+                  <c:v>2.1233542000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.5365830000002002E-3</c:v>
+                  <c:v>9.0610620000000502E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.7167874999999701E-2</c:v>
+                  <c:v>1.6795874499999849E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.1576669999999001E-3</c:v>
+                  <c:v>1.7678999500000025E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.89518339999998E-2</c:v>
+                  <c:v>1.4317417499999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.5706457E-2</c:v>
+                  <c:v>2.2740666499999902E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.781459E-3</c:v>
+                  <c:v>1.6608894999999901E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.3026914999999899E-2</c:v>
+                  <c:v>9.6816044999999493E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.2044999999999999E-3</c:v>
+                  <c:v>1.693602E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.2707929999999E-3</c:v>
+                  <c:v>9.0626249999999492E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.18114384999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C28B-F840-BB33-55453D0D26E4}"/>
+              <c16:uniqueId val="{00000000-A203-904A-811C-36F92879574D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1314,11 +1431,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$23</c:f>
+              <c:f>Sheet1!$R$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>flatten</c:v>
+                  <c:v>CF Flattening</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1335,9 +1452,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$24:$A$39</c:f>
+              <c:f>Sheet1!$P$24:$P$40</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>array-trans</c:v>
                 </c:pt>
@@ -1366,24 +1483,27 @@
                   <c:v>logic-reactor</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>mandelbrot</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>matrix-engine</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>mutation</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>pattern</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>recursive</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>roman</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>stepper</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>switch-hell</c:v>
                 </c:pt>
               </c:strCache>
@@ -1391,64 +1511,67 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$24:$C$39</c:f>
+              <c:f>Sheet1!$R$24:$R$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>4.3952909999997996E-3</c:v>
+                  <c:v>5.0008949999998499E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.1508759999998998E-3</c:v>
+                  <c:v>3.8229164999997998E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.4448749999997E-3</c:v>
+                  <c:v>4.3954164999997995E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.259208E-3</c:v>
+                  <c:v>3.3933124999999502E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.8297090000002001E-3</c:v>
+                  <c:v>3.5244790000000499E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.7250420000001002E-3</c:v>
+                  <c:v>3.6336470000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.6281249999998997E-3</c:v>
+                  <c:v>4.0471254999998995E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.1304579999996999E-3</c:v>
+                  <c:v>3.1114994999998499E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.8697089999999001E-3</c:v>
+                  <c:v>3.6178129999999004E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.6190830000001001E-3</c:v>
+                  <c:v>8.9675732499999994E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.0564169999998999E-3</c:v>
+                  <c:v>3.1704995E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.6432930000000999E-3</c:v>
+                  <c:v>4.3817289999999506E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.0367499999999002E-3</c:v>
+                  <c:v>3.4976250000000502E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.9119999999998999E-3</c:v>
+                  <c:v>3.4021454999999001E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.729417E-3</c:v>
+                  <c:v>4.1182284999999501E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.8332929999999E-3</c:v>
+                  <c:v>3.2704585000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.4006464999999002E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C28B-F840-BB33-55453D0D26E4}"/>
+              <c16:uniqueId val="{00000001-A203-904A-811C-36F92879574D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1457,11 +1580,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$23</c:f>
+              <c:f>Sheet1!$S$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>mba</c:v>
+                  <c:v>MBA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1478,9 +1601,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$24:$A$39</c:f>
+              <c:f>Sheet1!$P$24:$P$40</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>array-trans</c:v>
                 </c:pt>
@@ -1509,24 +1632,27 @@
                   <c:v>logic-reactor</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>mandelbrot</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>matrix-engine</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>mutation</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>pattern</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>recursive</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>roman</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>stepper</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>switch-hell</c:v>
                 </c:pt>
               </c:strCache>
@@ -1534,64 +1660,67 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$24:$D$39</c:f>
+              <c:f>Sheet1!$S$24:$S$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>2.8816650000002999E-3</c:v>
+                  <c:v>3.0337700000001499E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.170375E-3</c:v>
+                  <c:v>3.8386040000001004E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0330410000001E-3</c:v>
+                  <c:v>2.9472085000000498E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1085399999999002E-3</c:v>
+                  <c:v>2.8951864999998498E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.6192499999998999E-3</c:v>
+                  <c:v>2.6367704999999499E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.8419999999999999E-3</c:v>
+                  <c:v>2.86650000000005E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.3734589999995998E-3</c:v>
+                  <c:v>3.4821039999997998E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.736708E-3</c:v>
+                  <c:v>2.8293954999999002E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.1227089999998001E-3</c:v>
+                  <c:v>2.9989174999998499E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.6768339999999999E-3</c:v>
+                  <c:v>4.272364499999925E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.0829179999998001E-3</c:v>
+                  <c:v>2.7419580000001501E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.0721239999999999E-3</c:v>
+                  <c:v>3.4929799999999503E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.4267919999998999E-3</c:v>
+                  <c:v>2.9676454999997999E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.9177499999999E-3</c:v>
+                  <c:v>3.1051454999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.0397079999999002E-3</c:v>
+                  <c:v>3.0335839999999503E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.9921259999999999E-3</c:v>
+                  <c:v>2.823187E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.0870005000000499E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C28B-F840-BB33-55453D0D26E4}"/>
+              <c16:uniqueId val="{00000002-A203-904A-811C-36F92879574D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1600,11 +1729,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$23</c:f>
+              <c:f>Sheet1!$T$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>merge</c:v>
+                  <c:v>Function Merging</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1621,9 +1750,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$24:$A$39</c:f>
+              <c:f>Sheet1!$P$24:$P$40</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>array-trans</c:v>
                 </c:pt>
@@ -1652,24 +1781,27 @@
                   <c:v>logic-reactor</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>mandelbrot</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>matrix-engine</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>mutation</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>pattern</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>recursive</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>roman</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>stepper</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>switch-hell</c:v>
                 </c:pt>
               </c:strCache>
@@ -1677,64 +1809,67 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$24:$E$39</c:f>
+              <c:f>Sheet1!$T$24:$T$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>3.0072089999997002E-3</c:v>
+                  <c:v>3.2292499999999002E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0828749999998002E-3</c:v>
+                  <c:v>3.2244579999999002E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0102509999999998E-3</c:v>
+                  <c:v>2.7872084999999496E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.3614579999998997E-3</c:v>
+                  <c:v>3.5673749999998502E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.4925849999998997E-3</c:v>
+                  <c:v>3.5585215E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.11729E-3</c:v>
+                  <c:v>2.8832279999999001E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.8422909999997999E-3</c:v>
+                  <c:v>2.9227284999998999E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.4433739999996998E-3</c:v>
+                  <c:v>3.2491664999997998E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.7199149999999999E-3</c:v>
+                  <c:v>3.2528119999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.6097489999997998E-3</c:v>
+                  <c:v>4.02871849999995E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.3310839999999998E-3</c:v>
+                  <c:v>2.9458119999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.5282919999999E-3</c:v>
+                  <c:v>5.1871675000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.8626250000000002E-3</c:v>
+                  <c:v>2.9865624999998001E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.719291E-3</c:v>
+                  <c:v>3.3045834999999501E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.8163760000001E-3</c:v>
+                  <c:v>3.0030205000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.9384999999999E-3</c:v>
+                  <c:v>2.7722089999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.8439369999998998E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-C28B-F840-BB33-55453D0D26E4}"/>
+              <c16:uniqueId val="{00000003-A203-904A-811C-36F92879574D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1743,18 +1878,18 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$23</c:f>
+              <c:f>Sheet1!$U$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>orig</c:v>
+                  <c:v>Original</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5"/>
+              <a:schemeClr val="tx2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1764,9 +1899,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$24:$A$39</c:f>
+              <c:f>Sheet1!$P$24:$P$40</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>array-trans</c:v>
                 </c:pt>
@@ -1795,24 +1930,27 @@
                   <c:v>logic-reactor</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>mandelbrot</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>matrix-engine</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>mutation</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>pattern</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>recursive</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>roman</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>stepper</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>switch-hell</c:v>
                 </c:pt>
               </c:strCache>
@@ -1820,64 +1958,67 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$24:$F$39</c:f>
+              <c:f>Sheet1!$U$24:$U$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>3.9286259999999004E-3</c:v>
+                  <c:v>3.8951254999999504E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0885830000000002E-3</c:v>
+                  <c:v>3.0406669999999002E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.1299580000001001E-3</c:v>
+                  <c:v>2.9052710000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.4473349999999E-3</c:v>
+                  <c:v>3.3304174999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.9782900000000999E-3</c:v>
+                  <c:v>3.1113950000000497E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0541679999998E-3</c:v>
+                  <c:v>2.9261464999998498E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.8879169999997002E-3</c:v>
+                  <c:v>2.8917504999998499E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.9219169999996002E-3</c:v>
+                  <c:v>2.72829199999975E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.6586230000000999E-3</c:v>
+                  <c:v>3.3354365000000498E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.6706249999999001E-3</c:v>
+                  <c:v>7.4017922499999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.2055E-3</c:v>
+                  <c:v>2.7619584999997999E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.3751260000001002E-3</c:v>
+                  <c:v>3.54977149999995E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.6783329999999E-3</c:v>
+                  <c:v>2.9623964999999503E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.6841249999999999E-3</c:v>
+                  <c:v>2.9261039999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.4733330000001002E-3</c:v>
+                  <c:v>2.9274574999999499E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.9948750000000002E-3</c:v>
+                  <c:v>5.6288325000000503E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.287313E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-C28B-F840-BB33-55453D0D26E4}"/>
+              <c16:uniqueId val="{00000004-A203-904A-811C-36F92879574D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1891,16 +2032,71 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1330450927"/>
-        <c:axId val="317739391"/>
+        <c:axId val="2121616751"/>
+        <c:axId val="2020436192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1330450927"/>
+        <c:axId val="2121616751"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Benchmark program</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-AT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1938,7 +2134,7 @@
             <a:endParaRPr lang="en-AT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317739391"/>
+        <c:crossAx val="2020436192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1946,7 +2142,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="317739391"/>
+        <c:axId val="2020436192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1966,6 +2162,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>CPU</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> time</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-AT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1997,7 +2253,7 @@
             <a:endParaRPr lang="en-AT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1330450927"/>
+        <c:crossAx val="2121616751"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3174,23 +3430,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>179324</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB5AEB37-19EB-004E-859F-9C3498E96502}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E91BA64-910C-D64A-B596-4A8480FC0B5D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3210,23 +3466,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFC05E66-CDBC-6043-9205-4D405C5C001C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22D81B9E-3CD4-8C4C-A599-7690A600ABF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3568,10 +3824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="S32" sqref="S32"/>
+    <sheetView tabSelected="1" topLeftCell="P19" zoomScale="150" workbookViewId="0">
+      <selection activeCell="Q33" sqref="Q33:U33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3579,29 +3835,62 @@
     <col min="1" max="1" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>6</v>
       </c>
       <c r="B2">
         <v>5.0258750008651903E-2</v>
@@ -3618,10 +3907,51 @@
       <c r="F2">
         <v>2.4017375006224001E-2</v>
       </c>
+      <c r="I2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>3.63804170046933E-2</v>
+      </c>
+      <c r="K2">
+        <v>3.86415419925469E-2</v>
+      </c>
+      <c r="L2">
+        <v>2.2980374982580501E-2</v>
+      </c>
+      <c r="M2">
+        <v>3.84704169991891E-2</v>
+      </c>
+      <c r="N2">
+        <v>2.4568249995354501E-2</v>
+      </c>
+      <c r="P2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <f>AVERAGE(B2,J2)</f>
+        <v>4.3319583506672601E-2</v>
+      </c>
+      <c r="R2">
+        <f t="shared" ref="R2:U17" si="0">AVERAGE(C2,K2)</f>
+        <v>3.1888312994851647E-2</v>
+      </c>
+      <c r="S2">
+        <f t="shared" si="0"/>
+        <v>2.3875562488683451E-2</v>
+      </c>
+      <c r="T2">
+        <f t="shared" si="0"/>
+        <v>3.365310400113225E-2</v>
+      </c>
+      <c r="U2">
+        <f t="shared" si="0"/>
+        <v>2.4292812500789251E-2</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>2.9852374995243701E-2</v>
@@ -3638,10 +3968,51 @@
       <c r="F3">
         <v>1.87789170013275E-2</v>
       </c>
+      <c r="I3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>3.2114583998918499E-2</v>
+      </c>
+      <c r="K3">
+        <v>2.1859792002942399E-2</v>
+      </c>
+      <c r="L3">
+        <v>3.0429708014707998E-2</v>
+      </c>
+      <c r="M3">
+        <v>2.1515542000997801E-2</v>
+      </c>
+      <c r="N3">
+        <v>2.00602079858072E-2</v>
+      </c>
+      <c r="P3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q42" si="1">AVERAGE(B3,J3)</f>
+        <v>3.09834794970811E-2</v>
+      </c>
+      <c r="R3">
+        <f t="shared" si="0"/>
+        <v>2.1654666503309251E-2</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="0"/>
+        <v>2.534616650518725E-2</v>
+      </c>
+      <c r="T3">
+        <f t="shared" si="0"/>
+        <v>2.0491916497121551E-2</v>
+      </c>
+      <c r="U3">
+        <f t="shared" si="0"/>
+        <v>1.9419562493567348E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>4.0903750006691497E-2</v>
@@ -3658,10 +4029,51 @@
       <c r="F4">
         <v>2.2250582987908201E-2</v>
       </c>
+      <c r="I4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>3.2317167002474799E-2</v>
+      </c>
+      <c r="K4">
+        <v>2.2145041002659099E-2</v>
+      </c>
+      <c r="L4">
+        <v>2.1190833009313698E-2</v>
+      </c>
+      <c r="M4">
+        <v>2.2572042013052799E-2</v>
+      </c>
+      <c r="N4">
+        <v>2.1638999984133898E-2</v>
+      </c>
+      <c r="P4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="1"/>
+        <v>3.6610458504583152E-2</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="0"/>
+        <v>2.5049291500181398E-2</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="0"/>
+        <v>2.2310457999992601E-2</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="0"/>
+        <v>2.3153917005402001E-2</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="0"/>
+        <v>2.1944791486021048E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>2.9914166996604701E-2</v>
@@ -3678,10 +4090,51 @@
       <c r="F5">
         <v>2.0477665995713299E-2</v>
       </c>
+      <c r="I5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>4.1596750001190202E-2</v>
+      </c>
+      <c r="K5">
+        <v>2.2429667005781001E-2</v>
+      </c>
+      <c r="L5">
+        <v>2.1270124998409301E-2</v>
+      </c>
+      <c r="M5">
+        <v>2.28162920102477E-2</v>
+      </c>
+      <c r="N5">
+        <v>2.2570208995603001E-2</v>
+      </c>
+      <c r="P5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>3.5755458498897455E-2</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="0"/>
+        <v>2.047804150060975E-2</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="0"/>
+        <v>2.0081979004316949E-2</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="0"/>
+        <v>2.3441438010195249E-2</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="0"/>
+        <v>2.152393749565815E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>2.2215584001969501E-2</v>
@@ -3698,10 +4151,51 @@
       <c r="F6">
         <v>2.1739292002166601E-2</v>
       </c>
+      <c r="I6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>2.75430829788092E-2</v>
+      </c>
+      <c r="K6">
+        <v>2.0621500007109699E-2</v>
+      </c>
+      <c r="L6">
+        <v>2.23917090042959E-2</v>
+      </c>
+      <c r="M6">
+        <v>2.0145208982285102E-2</v>
+      </c>
+      <c r="N6">
+        <v>2.0074041996849701E-2</v>
+      </c>
+      <c r="P6" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>2.4879333490389351E-2</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="0"/>
+        <v>2.1206396006164099E-2</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="0"/>
+        <v>2.1973167000396549E-2</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="0"/>
+        <v>2.4015458489884602E-2</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="0"/>
+        <v>2.0906666999508151E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>3.2596792007097898E-2</v>
@@ -3718,10 +4212,51 @@
       <c r="F7">
         <v>2.73775410023517E-2</v>
       </c>
+      <c r="I7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7">
+        <v>4.4478708005044602E-2</v>
+      </c>
+      <c r="K7">
+        <v>2.3705125000560601E-2</v>
+      </c>
+      <c r="L7">
+        <v>2.42461670131888E-2</v>
+      </c>
+      <c r="M7">
+        <v>2.25074170157313E-2</v>
+      </c>
+      <c r="N7">
+        <v>2.2762916982173899E-2</v>
+      </c>
+      <c r="P7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>3.853775000607125E-2</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="0"/>
+        <v>2.4134812498232301E-2</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="0"/>
+        <v>2.4193854507757302E-2</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="0"/>
+        <v>2.2817583507276099E-2</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="0"/>
+        <v>2.50702289922628E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>4.4493791996501303E-2</v>
@@ -3738,10 +4273,51 @@
       <c r="F8">
         <v>2.2625083001912499E-2</v>
       </c>
+      <c r="I8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8">
+        <v>3.0700917006470201E-2</v>
+      </c>
+      <c r="K8">
+        <v>2.3352667019935301E-2</v>
+      </c>
+      <c r="L8">
+        <v>2.66280830255709E-2</v>
+      </c>
+      <c r="M8">
+        <v>2.0981875015422698E-2</v>
+      </c>
+      <c r="N8">
+        <v>2.1858959022210901E-2</v>
+      </c>
+      <c r="P8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>3.7597354501485755E-2</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="0"/>
+        <v>2.4597417010227201E-2</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="0"/>
+        <v>2.4666500015882699E-2</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="0"/>
+        <v>2.1971312504319898E-2</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="0"/>
+        <v>2.22420210120617E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>2.10063339909538E-2</v>
@@ -3758,10 +4334,51 @@
       <c r="F9">
         <v>2.29288340051425E-2</v>
       </c>
+      <c r="I9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9">
+        <v>3.07421670004259E-2</v>
+      </c>
+      <c r="K9">
+        <v>2.2237124998355201E-2</v>
+      </c>
+      <c r="L9">
+        <v>2.6612499990733299E-2</v>
+      </c>
+      <c r="M9">
+        <v>2.32728750270325E-2</v>
+      </c>
+      <c r="N9">
+        <v>2.0612374995835101E-2</v>
+      </c>
+      <c r="P9" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>2.5874250495689852E-2</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>2.2845979001431201E-2</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="0"/>
+        <v>2.455906249815595E-2</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="0"/>
+        <v>2.32599375158315E-2</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>2.1770604500488802E-2</v>
+      </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>2.9905125004006501E-2</v>
@@ -3778,10 +4395,51 @@
       <c r="F10">
         <v>1.93462500028545E-2</v>
       </c>
+      <c r="I10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10">
+        <v>3.1327667005825698E-2</v>
+      </c>
+      <c r="K10">
+        <v>2.20979169826023E-2</v>
+      </c>
+      <c r="L10">
+        <v>2.2315582988085201E-2</v>
+      </c>
+      <c r="M10">
+        <v>1.9604250002885199E-2</v>
+      </c>
+      <c r="N10">
+        <v>2.1192334010265702E-2</v>
+      </c>
+      <c r="P10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>3.0616396004916099E-2</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="0"/>
+        <v>2.160654199542475E-2</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="0"/>
+        <v>2.352293749572705E-2</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="0"/>
+        <v>2.033220849989445E-2</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="0"/>
+        <v>2.0269292006560101E-2</v>
+      </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>2.26275419990997E-2</v>
@@ -3798,10 +4456,51 @@
       <c r="F11">
         <v>2.1662125000148E-2</v>
       </c>
+      <c r="I11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11">
+        <v>6.6556999983731602E-2</v>
+      </c>
+      <c r="K11">
+        <v>2.8231833013705899E-2</v>
+      </c>
+      <c r="L11">
+        <v>2.56024579866789E-2</v>
+      </c>
+      <c r="M11">
+        <v>2.33173750166315E-2</v>
+      </c>
+      <c r="N11">
+        <v>2.1611417003441599E-2</v>
+      </c>
+      <c r="P11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q11">
+        <f>AVERAGE(B20,J20)/200</f>
+        <v>4.2141753667565354E-2</v>
+      </c>
+      <c r="R11">
+        <f>AVERAGE(C20,K20)/200</f>
+        <v>3.7140313769996283E-2</v>
+      </c>
+      <c r="S11">
+        <f>AVERAGE(D20,L20)/200</f>
+        <v>3.6148570952464071E-2</v>
+      </c>
+      <c r="T11">
+        <f>AVERAGE(E20,M20)/200</f>
+        <v>3.8877195225031753E-2</v>
+      </c>
+      <c r="U11">
+        <f>AVERAGE(F20,N20)/200</f>
+        <v>3.6746579495047629E-2</v>
+      </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>3.2200083995121503E-2</v>
@@ -3818,10 +4517,51 @@
       <c r="F12">
         <v>2.3529750003944999E-2</v>
       </c>
+      <c r="I12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12">
+        <v>4.7585250023985198E-2</v>
+      </c>
+      <c r="K12">
+        <v>2.1971542009850902E-2</v>
+      </c>
+      <c r="L12">
+        <v>3.0451250000623899E-2</v>
+      </c>
+      <c r="M12">
+        <v>2.5462499994318901E-2</v>
+      </c>
+      <c r="N12">
+        <v>2.2074125008657498E-2</v>
+      </c>
+      <c r="P12" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q12">
+        <f>AVERAGE(B11,J11)</f>
+        <v>4.4592270991415647E-2</v>
+      </c>
+      <c r="R12">
+        <f>AVERAGE(C11,K11)</f>
+        <v>2.5237020505301147E-2</v>
+      </c>
+      <c r="S12">
+        <f>AVERAGE(D11,L11)</f>
+        <v>2.4114707994158352E-2</v>
+      </c>
+      <c r="T12">
+        <f>AVERAGE(E11,M11)</f>
+        <v>2.264354201179225E-2</v>
+      </c>
+      <c r="U12">
+        <f>AVERAGE(F11,N11)</f>
+        <v>2.16367710017948E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>3.2966625003609799E-2</v>
@@ -3838,10 +4578,51 @@
       <c r="F13">
         <v>2.4004416001844199E-2</v>
       </c>
+      <c r="I13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13">
+        <v>3.4924750012578401E-2</v>
+      </c>
+      <c r="K13">
+        <v>2.3184707999462199E-2</v>
+      </c>
+      <c r="L13">
+        <v>2.3037749982904601E-2</v>
+      </c>
+      <c r="M13">
+        <v>2.1595375001197601E-2</v>
+      </c>
+      <c r="N13">
+        <v>2.22219999996013E-2</v>
+      </c>
+      <c r="P13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q13">
+        <f>AVERAGE(B12,J12)</f>
+        <v>3.9892667009553351E-2</v>
+      </c>
+      <c r="R13">
+        <f>AVERAGE(C12,K12)</f>
+        <v>2.2087771008955252E-2</v>
+      </c>
+      <c r="S13">
+        <f>AVERAGE(D12,L12)</f>
+        <v>2.4721062502067001E-2</v>
+      </c>
+      <c r="T13">
+        <f>AVERAGE(E12,M12)</f>
+        <v>2.47989374984172E-2</v>
+      </c>
+      <c r="U13">
+        <f>AVERAGE(F12,N12)</f>
+        <v>2.2801937506301249E-2</v>
+      </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>2.4648042002809199E-2</v>
@@ -3858,10 +4639,51 @@
       <c r="F14">
         <v>2.07485419959994E-2</v>
       </c>
+      <c r="I14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14">
+        <v>2.9326332994969499E-2</v>
+      </c>
+      <c r="K14">
+        <v>2.2441832988988601E-2</v>
+      </c>
+      <c r="L14">
+        <v>2.2029208019375801E-2</v>
+      </c>
+      <c r="M14">
+        <v>2.1108374989125801E-2</v>
+      </c>
+      <c r="N14">
+        <v>2.2822958009783099E-2</v>
+      </c>
+      <c r="P14" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q14">
+        <f>AVERAGE(B13,J13)</f>
+        <v>3.3945687508094097E-2</v>
+      </c>
+      <c r="R14">
+        <f>AVERAGE(C13,K13)</f>
+        <v>2.35562290035886E-2</v>
+      </c>
+      <c r="S14">
+        <f>AVERAGE(D13,L13)</f>
+        <v>2.3469041494536151E-2</v>
+      </c>
+      <c r="T14">
+        <f>AVERAGE(E13,M13)</f>
+        <v>2.440831249987235E-2</v>
+      </c>
+      <c r="U14">
+        <f>AVERAGE(F13,N13)</f>
+        <v>2.3113208000722751E-2</v>
+      </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>2.50959160039201E-2</v>
@@ -3878,10 +4700,51 @@
       <c r="F15">
         <v>1.87201670050853E-2</v>
       </c>
+      <c r="I15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15">
+        <v>4.1776083991862799E-2</v>
+      </c>
+      <c r="K15">
+        <v>2.4336292000953101E-2</v>
+      </c>
+      <c r="L15">
+        <v>2.4143457994796301E-2</v>
+      </c>
+      <c r="M15">
+        <v>2.2828332992503399E-2</v>
+      </c>
+      <c r="N15">
+        <v>2.5902499997755499E-2</v>
+      </c>
+      <c r="P15" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q15">
+        <f>AVERAGE(B14,J14)</f>
+        <v>2.6987187498889349E-2</v>
+      </c>
+      <c r="R15">
+        <f>AVERAGE(C14,K14)</f>
+        <v>2.2056020497984701E-2</v>
+      </c>
+      <c r="S15">
+        <f>AVERAGE(D14,L14)</f>
+        <v>2.5324208007077652E-2</v>
+      </c>
+      <c r="T15">
+        <f>AVERAGE(E14,M14)</f>
+        <v>2.2985749994404552E-2</v>
+      </c>
+      <c r="U15">
+        <f>AVERAGE(F14,N14)</f>
+        <v>2.1785750002891249E-2</v>
+      </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>2.15813329996308E-2</v>
@@ -3898,10 +4761,51 @@
       <c r="F16">
         <v>3.1857333000516498E-2</v>
       </c>
+      <c r="I16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16">
+        <v>2.8417708002962099E-2</v>
+      </c>
+      <c r="K16">
+        <v>2.2380290989531201E-2</v>
+      </c>
+      <c r="L16">
+        <v>2.06231249903794E-2</v>
+      </c>
+      <c r="M16">
+        <v>1.99882079905364E-2</v>
+      </c>
+      <c r="N16">
+        <v>2.0928750018356299E-2</v>
+      </c>
+      <c r="P16" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q16">
+        <f>AVERAGE(B15,J15)</f>
+        <v>3.3435999997891451E-2</v>
+      </c>
+      <c r="R16">
+        <f>AVERAGE(C15,K15)</f>
+        <v>2.15247710002586E-2</v>
+      </c>
+      <c r="S16">
+        <f>AVERAGE(D15,L15)</f>
+        <v>2.148212499741925E-2</v>
+      </c>
+      <c r="T16">
+        <f>AVERAGE(E15,M15)</f>
+        <v>2.056318749237105E-2</v>
+      </c>
+      <c r="U16">
+        <f>AVERAGE(F15,N15)</f>
+        <v>2.2311333501420401E-2</v>
+      </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>2.19084579875925E-2</v>
@@ -3918,10 +4822,76 @@
       <c r="F17">
         <v>2.23698330082697E-2</v>
       </c>
+      <c r="I17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17">
+        <v>4.3117166991578401E-2</v>
+      </c>
+      <c r="K17">
+        <v>2.34962080139666E-2</v>
+      </c>
+      <c r="L17">
+        <v>2.1091000002343201E-2</v>
+      </c>
+      <c r="M17">
+        <v>2.08741250098682E-2</v>
+      </c>
+      <c r="N17">
+        <v>2.30543749930802E-2</v>
+      </c>
+      <c r="P17" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q17">
+        <f>AVERAGE(B16,J16)</f>
+        <v>2.499952050129645E-2</v>
+      </c>
+      <c r="R17">
+        <f>AVERAGE(C16,K16)</f>
+        <v>2.1448103994771352E-2</v>
+      </c>
+      <c r="S17">
+        <f>AVERAGE(D16,L16)</f>
+        <v>2.1991645495290799E-2</v>
+      </c>
+      <c r="T17">
+        <f>AVERAGE(E16,M16)</f>
+        <v>2.07217084971489E-2</v>
+      </c>
+      <c r="U17">
+        <f>AVERAGE(F16,N16)</f>
+        <v>2.6393041509436398E-2</v>
+      </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P18" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q18">
+        <f>AVERAGE(B17,J17)</f>
+        <v>3.2512812489585451E-2</v>
+      </c>
+      <c r="R18">
+        <f>AVERAGE(C17,K17)</f>
+        <v>2.2474812511063598E-2</v>
+      </c>
+      <c r="S18">
+        <f>AVERAGE(D17,L17)</f>
+        <v>2.1229666999715801E-2</v>
+      </c>
+      <c r="T18">
+        <f>AVERAGE(E17,M17)</f>
+        <v>2.117008350614915E-2</v>
+      </c>
+      <c r="U18">
+        <f>AVERAGE(F17,N17)</f>
+        <v>2.271210400067495E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B20">
         <v>8.5098390880011721</v>
@@ -3938,30 +4908,81 @@
       <c r="F20">
         <v>7.3412063360010507</v>
       </c>
+      <c r="I20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J20">
+        <v>8.3468623790249694</v>
+      </c>
+      <c r="K20">
+        <v>7.390079128992511</v>
+      </c>
+      <c r="L20">
+        <v>7.1767727529804688</v>
+      </c>
+      <c r="M20">
+        <v>7.6950382950017229</v>
+      </c>
+      <c r="N20">
+        <v>7.357425462018</v>
+      </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" t="s">
         <v>23</v>
       </c>
-      <c r="B23" t="s">
+      <c r="I23" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" t="s">
+        <v>24</v>
+      </c>
+      <c r="K23" t="s">
+        <v>25</v>
+      </c>
+      <c r="L23" t="s">
+        <v>26</v>
+      </c>
+      <c r="M23" t="s">
+        <v>27</v>
+      </c>
+      <c r="N23" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>19</v>
+      </c>
+      <c r="R23" t="s">
+        <v>20</v>
+      </c>
+      <c r="S23" t="s">
+        <v>21</v>
+      </c>
+      <c r="T23" t="s">
+        <v>22</v>
+      </c>
+      <c r="U23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>1</v>
-      </c>
-      <c r="C23" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" t="s">
-        <v>4</v>
-      </c>
-      <c r="F23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>6</v>
       </c>
       <c r="B24">
         <v>2.9155665999999799E-2</v>
@@ -3978,10 +4999,51 @@
       <c r="F24">
         <v>3.9286259999999004E-3</v>
       </c>
+      <c r="I24" t="s">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1.6412332000000002E-2</v>
+      </c>
+      <c r="K24">
+        <v>5.6064989999999003E-3</v>
+      </c>
+      <c r="L24">
+        <v>3.1858749999999999E-3</v>
+      </c>
+      <c r="M24">
+        <v>3.4512910000001002E-3</v>
+      </c>
+      <c r="N24">
+        <v>3.861625E-3</v>
+      </c>
+      <c r="P24" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="1"/>
+        <v>2.2783998999999902E-2</v>
+      </c>
+      <c r="R24">
+        <f t="shared" ref="R18:R42" si="2">AVERAGE(C24,K24)</f>
+        <v>5.0008949999998499E-3</v>
+      </c>
+      <c r="S24">
+        <f t="shared" ref="S18:S42" si="3">AVERAGE(D24,L24)</f>
+        <v>3.0337700000001499E-3</v>
+      </c>
+      <c r="T24">
+        <f t="shared" ref="T18:T42" si="4">AVERAGE(E24,M24)</f>
+        <v>3.2292499999999002E-3</v>
+      </c>
+      <c r="U24">
+        <f t="shared" ref="U18:U42" si="5">AVERAGE(F24,N24)</f>
+        <v>3.8951254999999504E-3</v>
+      </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B25">
         <v>1.6461209000000001E-2</v>
@@ -3998,10 +5060,51 @@
       <c r="F25">
         <v>3.0885830000000002E-3</v>
       </c>
+      <c r="I25" t="s">
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <v>1.6640374999999898E-2</v>
+      </c>
+      <c r="K25">
+        <v>3.4949569999996998E-3</v>
+      </c>
+      <c r="L25">
+        <v>4.5068330000002004E-3</v>
+      </c>
+      <c r="M25">
+        <v>3.3660410000000002E-3</v>
+      </c>
+      <c r="N25">
+        <v>2.9927509999998002E-3</v>
+      </c>
+      <c r="P25" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="1"/>
+        <v>1.655079199999995E-2</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="2"/>
+        <v>3.8229164999997998E-3</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="3"/>
+        <v>3.8386040000001004E-3</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="4"/>
+        <v>3.2244579999999002E-3</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="5"/>
+        <v>3.0406669999999002E-3</v>
+      </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B26">
         <v>1.9762916999999901E-2</v>
@@ -4018,10 +5121,51 @@
       <c r="F26">
         <v>3.1299580000001001E-3</v>
       </c>
+      <c r="I26" t="s">
+        <v>3</v>
+      </c>
+      <c r="J26">
+        <v>1.6503916E-2</v>
+      </c>
+      <c r="K26">
+        <v>3.3459579999998998E-3</v>
+      </c>
+      <c r="L26">
+        <v>2.8613760000000001E-3</v>
+      </c>
+      <c r="M26">
+        <v>2.5641659999998999E-3</v>
+      </c>
+      <c r="N26">
+        <v>2.6805839999999E-3</v>
+      </c>
+      <c r="P26" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="1"/>
+        <v>1.8133416499999951E-2</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="2"/>
+        <v>4.3954164999997995E-3</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="3"/>
+        <v>2.9472085000000498E-3</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="4"/>
+        <v>2.7872084999999496E-3</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="5"/>
+        <v>2.9052710000000001E-3</v>
+      </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B27">
         <v>1.65684589999999E-2</v>
@@ -4038,10 +5182,51 @@
       <c r="F27">
         <v>3.4473349999999E-3</v>
       </c>
+      <c r="I27" t="s">
+        <v>4</v>
+      </c>
+      <c r="J27">
+        <v>2.2391708E-2</v>
+      </c>
+      <c r="K27">
+        <v>3.5274169999999E-3</v>
+      </c>
+      <c r="L27">
+        <v>2.6818329999997999E-3</v>
+      </c>
+      <c r="M27">
+        <v>2.7732919999998002E-3</v>
+      </c>
+      <c r="N27">
+        <v>3.2134999999999E-3</v>
+      </c>
+      <c r="P27" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="1"/>
+        <v>1.948008349999995E-2</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="2"/>
+        <v>3.3933124999999502E-3</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="3"/>
+        <v>2.8951864999998498E-3</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="4"/>
+        <v>3.5673749999998502E-3</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="5"/>
+        <v>3.3304174999999E-3</v>
+      </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B28">
         <v>3.5484600000001E-3</v>
@@ -4058,10 +5243,51 @@
       <c r="F28">
         <v>2.9782900000000999E-3</v>
       </c>
+      <c r="I28" t="s">
+        <v>5</v>
+      </c>
+      <c r="J28">
+        <v>1.5208292E-2</v>
+      </c>
+      <c r="K28">
+        <v>4.2192489999998998E-3</v>
+      </c>
+      <c r="L28">
+        <v>2.654291E-3</v>
+      </c>
+      <c r="M28">
+        <v>2.6244580000000998E-3</v>
+      </c>
+      <c r="N28">
+        <v>3.2445E-3</v>
+      </c>
+      <c r="P28" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="1"/>
+        <v>9.3783760000000493E-3</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="2"/>
+        <v>3.5244790000000499E-3</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="3"/>
+        <v>2.6367704999999499E-3</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="4"/>
+        <v>3.5585215E-3</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="5"/>
+        <v>3.1113950000000497E-3</v>
+      </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B29">
         <v>1.5555375999999999E-2</v>
@@ -4078,10 +5304,51 @@
       <c r="F29">
         <v>3.0541679999998E-3</v>
       </c>
+      <c r="I29" t="s">
+        <v>6</v>
+      </c>
+      <c r="J29">
+        <v>2.3156414999999798E-2</v>
+      </c>
+      <c r="K29">
+        <v>3.5422519999998999E-3</v>
+      </c>
+      <c r="L29">
+        <v>2.8910000000001001E-3</v>
+      </c>
+      <c r="M29">
+        <v>2.6491659999998002E-3</v>
+      </c>
+      <c r="N29">
+        <v>2.7981249999999001E-3</v>
+      </c>
+      <c r="P29" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="1"/>
+        <v>1.9355895499999901E-2</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="2"/>
+        <v>3.6336470000000003E-3</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="3"/>
+        <v>2.86650000000005E-3</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="4"/>
+        <v>2.8832279999999001E-3</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="5"/>
+        <v>2.9261464999998498E-3</v>
+      </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B30">
         <v>2.6617499999999902E-2</v>
@@ -4098,10 +5365,51 @@
       <c r="F30">
         <v>2.8879169999997002E-3</v>
       </c>
+      <c r="I30" t="s">
+        <v>7</v>
+      </c>
+      <c r="J30">
+        <v>1.5849584000000101E-2</v>
+      </c>
+      <c r="K30">
+        <v>3.4661259999999002E-3</v>
+      </c>
+      <c r="L30">
+        <v>3.5907489999999999E-3</v>
+      </c>
+      <c r="M30">
+        <v>3.0031659999999998E-3</v>
+      </c>
+      <c r="N30">
+        <v>2.8955840000000001E-3</v>
+      </c>
+      <c r="P30" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="1"/>
+        <v>2.1233542000000001E-2</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="2"/>
+        <v>4.0471254999998995E-3</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="3"/>
+        <v>3.4821039999997998E-3</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="4"/>
+        <v>2.9227284999998999E-3</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="5"/>
+        <v>2.8917504999998499E-3</v>
+      </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B31">
         <v>3.5365830000002002E-3</v>
@@ -4118,10 +5426,51 @@
       <c r="F31">
         <v>2.9219169999996002E-3</v>
       </c>
+      <c r="I31" t="s">
+        <v>8</v>
+      </c>
+      <c r="J31">
+        <v>1.45855409999999E-2</v>
+      </c>
+      <c r="K31">
+        <v>3.0925409999999999E-3</v>
+      </c>
+      <c r="L31">
+        <v>2.9220829999997999E-3</v>
+      </c>
+      <c r="M31">
+        <v>3.0549589999999001E-3</v>
+      </c>
+      <c r="N31">
+        <v>2.5346669999998998E-3</v>
+      </c>
+      <c r="P31" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="1"/>
+        <v>9.0610620000000502E-3</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="2"/>
+        <v>3.1114994999998499E-3</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="3"/>
+        <v>2.8293954999999002E-3</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="4"/>
+        <v>3.2491664999997998E-3</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="5"/>
+        <v>2.72829199999975E-3</v>
+      </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B32">
         <v>1.7167874999999701E-2</v>
@@ -4138,10 +5487,51 @@
       <c r="F32">
         <v>3.6586230000000999E-3</v>
       </c>
+      <c r="I32" t="s">
+        <v>9</v>
+      </c>
+      <c r="J32">
+        <v>1.6423874000000001E-2</v>
+      </c>
+      <c r="K32">
+        <v>3.3659169999999002E-3</v>
+      </c>
+      <c r="L32">
+        <v>2.8751259999998998E-3</v>
+      </c>
+      <c r="M32">
+        <v>2.7857089999999999E-3</v>
+      </c>
+      <c r="N32">
+        <v>3.0122500000000002E-3</v>
+      </c>
+      <c r="P32" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="1"/>
+        <v>1.6795874499999849E-2</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="2"/>
+        <v>3.6178129999999004E-3</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="3"/>
+        <v>2.9989174999998499E-3</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="4"/>
+        <v>3.2528119999999999E-3</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="5"/>
+        <v>3.3354365000000498E-3</v>
+      </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B33">
         <v>3.1576669999999001E-3</v>
@@ -4158,10 +5548,51 @@
       <c r="F33">
         <v>2.6706249999999001E-3</v>
       </c>
+      <c r="I33" t="s">
+        <v>11</v>
+      </c>
+      <c r="J33">
+        <v>2.5477168000000099E-2</v>
+      </c>
+      <c r="K33">
+        <v>3.7219159999998998E-3</v>
+      </c>
+      <c r="L33">
+        <v>2.8070820000002999E-3</v>
+      </c>
+      <c r="M33">
+        <v>3.2818749999998001E-3</v>
+      </c>
+      <c r="N33">
+        <v>2.8532919999996998E-3</v>
+      </c>
+      <c r="P33" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q33">
+        <f>AVERAGE(B42,J42)/2</f>
+        <v>1.7678999500000025E-2</v>
+      </c>
+      <c r="R33">
+        <f t="shared" ref="R33:U33" si="6">AVERAGE(C42,K42)/2</f>
+        <v>8.9675732499999994E-3</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="6"/>
+        <v>4.272364499999925E-3</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="6"/>
+        <v>4.02871849999995E-3</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="6"/>
+        <v>7.4017922499999998E-3</v>
+      </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B34">
         <v>1.89518339999998E-2</v>
@@ -4178,10 +5609,51 @@
       <c r="F34">
         <v>4.2055E-3</v>
       </c>
+      <c r="I34" t="s">
+        <v>12</v>
+      </c>
+      <c r="J34">
+        <v>2.6529499000000002E-2</v>
+      </c>
+      <c r="K34">
+        <v>4.7070410000000003E-3</v>
+      </c>
+      <c r="L34">
+        <v>3.9030420000001E-3</v>
+      </c>
+      <c r="M34">
+        <v>5.0432510000000003E-3</v>
+      </c>
+      <c r="N34">
+        <v>2.8940429999999E-3</v>
+      </c>
+      <c r="P34" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q34">
+        <f>AVERAGE(B33,J33)</f>
+        <v>1.4317417499999999E-2</v>
+      </c>
+      <c r="R34">
+        <f>AVERAGE(C33,K33)</f>
+        <v>3.1704995E-3</v>
+      </c>
+      <c r="S34">
+        <f>AVERAGE(D33,L33)</f>
+        <v>2.7419580000001501E-3</v>
+      </c>
+      <c r="T34">
+        <f>AVERAGE(E33,M33)</f>
+        <v>2.9458119999998E-3</v>
+      </c>
+      <c r="U34">
+        <f>AVERAGE(F33,N33)</f>
+        <v>2.7619584999997999E-3</v>
+      </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B35">
         <v>1.5706457E-2</v>
@@ -4198,10 +5670,51 @@
       <c r="F35">
         <v>3.3751260000001002E-3</v>
       </c>
+      <c r="I35" t="s">
+        <v>13</v>
+      </c>
+      <c r="J35">
+        <v>1.7511332999999799E-2</v>
+      </c>
+      <c r="K35">
+        <v>3.351957E-3</v>
+      </c>
+      <c r="L35">
+        <v>2.8631669999995999E-3</v>
+      </c>
+      <c r="M35">
+        <v>2.4448329999996999E-3</v>
+      </c>
+      <c r="N35">
+        <v>2.5496669999997999E-3</v>
+      </c>
+      <c r="P35" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q35">
+        <f>AVERAGE(B34,J34)</f>
+        <v>2.2740666499999902E-2</v>
+      </c>
+      <c r="R35">
+        <f>AVERAGE(C34,K34)</f>
+        <v>4.3817289999999506E-3</v>
+      </c>
+      <c r="S35">
+        <f>AVERAGE(D34,L34)</f>
+        <v>3.4929799999999503E-3</v>
+      </c>
+      <c r="T35">
+        <f>AVERAGE(E34,M34)</f>
+        <v>5.1871675000000001E-3</v>
+      </c>
+      <c r="U35">
+        <f>AVERAGE(F34,N34)</f>
+        <v>3.54977149999995E-3</v>
+      </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B36">
         <v>3.781459E-3</v>
@@ -4218,10 +5731,51 @@
       <c r="F36">
         <v>2.6783329999999E-3</v>
       </c>
+      <c r="I36" t="s">
+        <v>14</v>
+      </c>
+      <c r="J36">
+        <v>1.55817499999999E-2</v>
+      </c>
+      <c r="K36">
+        <v>3.7675409999998999E-3</v>
+      </c>
+      <c r="L36">
+        <v>2.7834990000000998E-3</v>
+      </c>
+      <c r="M36">
+        <v>2.7465419999999001E-3</v>
+      </c>
+      <c r="N36">
+        <v>3.1738750000000998E-3</v>
+      </c>
+      <c r="P36" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q36">
+        <f>AVERAGE(B35,J35)</f>
+        <v>1.6608894999999901E-2</v>
+      </c>
+      <c r="R36">
+        <f>AVERAGE(C35,K35)</f>
+        <v>3.4976250000000502E-3</v>
+      </c>
+      <c r="S36">
+        <f>AVERAGE(D35,L35)</f>
+        <v>2.9676454999997999E-3</v>
+      </c>
+      <c r="T36">
+        <f>AVERAGE(E35,M35)</f>
+        <v>2.9865624999998001E-3</v>
+      </c>
+      <c r="U36">
+        <f>AVERAGE(F35,N35)</f>
+        <v>2.9623964999999503E-3</v>
+      </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B37">
         <v>1.3026914999999899E-2</v>
@@ -4238,10 +5792,51 @@
       <c r="F37">
         <v>2.6841249999999999E-3</v>
       </c>
+      <c r="I37" t="s">
+        <v>15</v>
+      </c>
+      <c r="J37">
+        <v>2.08451250000001E-2</v>
+      </c>
+      <c r="K37">
+        <v>4.3244570000000003E-3</v>
+      </c>
+      <c r="L37">
+        <v>3.1494180000000002E-3</v>
+      </c>
+      <c r="M37">
+        <v>3.2867500000000002E-3</v>
+      </c>
+      <c r="N37">
+        <v>3.1707899999999E-3</v>
+      </c>
+      <c r="P37" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q37">
+        <f>AVERAGE(B36,J36)</f>
+        <v>9.6816044999999493E-3</v>
+      </c>
+      <c r="R37">
+        <f>AVERAGE(C36,K36)</f>
+        <v>3.4021454999999001E-3</v>
+      </c>
+      <c r="S37">
+        <f>AVERAGE(D36,L36)</f>
+        <v>3.1051454999999999E-3</v>
+      </c>
+      <c r="T37">
+        <f>AVERAGE(E36,M36)</f>
+        <v>3.3045834999999501E-3</v>
+      </c>
+      <c r="U37">
+        <f>AVERAGE(F36,N36)</f>
+        <v>2.9261039999999997E-3</v>
+      </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B38">
         <v>3.2044999999999999E-3</v>
@@ -4258,10 +5853,51 @@
       <c r="F38">
         <v>8.4733330000001002E-3</v>
       </c>
+      <c r="I38" t="s">
+        <v>16</v>
+      </c>
+      <c r="J38">
+        <v>1.4920749999999899E-2</v>
+      </c>
+      <c r="K38">
+        <v>3.8114999999999998E-3</v>
+      </c>
+      <c r="L38">
+        <v>2.6066660000000999E-3</v>
+      </c>
+      <c r="M38">
+        <v>2.7280419999998998E-3</v>
+      </c>
+      <c r="N38">
+        <v>2.784332E-3</v>
+      </c>
+      <c r="P38" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q38">
+        <f>AVERAGE(B37,J37)</f>
+        <v>1.693602E-2</v>
+      </c>
+      <c r="R38">
+        <f>AVERAGE(C37,K37)</f>
+        <v>4.1182284999999501E-3</v>
+      </c>
+      <c r="S38">
+        <f>AVERAGE(D37,L37)</f>
+        <v>3.0335839999999503E-3</v>
+      </c>
+      <c r="T38">
+        <f>AVERAGE(E37,M37)</f>
+        <v>3.0030205000000001E-3</v>
+      </c>
+      <c r="U38">
+        <f>AVERAGE(F37,N37)</f>
+        <v>2.9274574999999499E-3</v>
+      </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B39">
         <v>3.2707929999999E-3</v>
@@ -4278,10 +5914,76 @@
       <c r="F39">
         <v>3.9948750000000002E-3</v>
       </c>
+      <c r="I39" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39">
+        <v>2.0352083999999899E-2</v>
+      </c>
+      <c r="K39">
+        <v>3.9679999999999004E-3</v>
+      </c>
+      <c r="L39">
+        <v>3.1818750000001E-3</v>
+      </c>
+      <c r="M39">
+        <v>2.7493739999999E-3</v>
+      </c>
+      <c r="N39">
+        <v>2.5797509999999999E-3</v>
+      </c>
+      <c r="P39" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q39">
+        <f>AVERAGE(B38,J38)</f>
+        <v>9.0626249999999492E-3</v>
+      </c>
+      <c r="R39">
+        <f>AVERAGE(C38,K38)</f>
+        <v>3.2704585000000001E-3</v>
+      </c>
+      <c r="S39">
+        <f>AVERAGE(D38,L38)</f>
+        <v>2.823187E-3</v>
+      </c>
+      <c r="T39">
+        <f>AVERAGE(E38,M38)</f>
+        <v>2.7722089999999999E-3</v>
+      </c>
+      <c r="U39">
+        <f>AVERAGE(F38,N38)</f>
+        <v>5.6288325000000503E-3</v>
+      </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P40" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q40">
+        <f>AVERAGE(B39,J39)</f>
+        <v>1.18114384999999E-2</v>
+      </c>
+      <c r="R40">
+        <f>AVERAGE(C39,K39)</f>
+        <v>3.4006464999999002E-3</v>
+      </c>
+      <c r="S40">
+        <f>AVERAGE(D39,L39)</f>
+        <v>3.0870005000000499E-3</v>
+      </c>
+      <c r="T40">
+        <f>AVERAGE(E39,M39)</f>
+        <v>2.8439369999998998E-3</v>
+      </c>
+      <c r="U40">
+        <f>AVERAGE(F39,N39)</f>
+        <v>3.287313E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B42">
         <v>4.7875665000000199E-2</v>
@@ -4297,6 +5999,24 @@
       </c>
       <c r="F42">
         <v>8.2481680000001008E-3</v>
+      </c>
+      <c r="I42" t="s">
+        <v>10</v>
+      </c>
+      <c r="J42">
+        <v>2.28403329999999E-2</v>
+      </c>
+      <c r="K42">
+        <v>2.7108332999999901E-2</v>
+      </c>
+      <c r="L42">
+        <v>6.2130409999998004E-3</v>
+      </c>
+      <c r="M42">
+        <v>7.6547499999999003E-3</v>
+      </c>
+      <c r="N42">
+        <v>2.1359000999999898E-2</v>
       </c>
     </row>
   </sheetData>
